--- a/public/reports/consumed_itrems.xlsx
+++ b/public/reports/consumed_itrems.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t xml:space="preserve"> Consumed List </t>
   </si>
@@ -32,16 +32,37 @@
     <t>Total Consumed</t>
   </si>
   <si>
-    <t>Costar Assay Plate 96 Well Flat Bottom</t>
-  </si>
-  <si>
-    <t>Disposable Dust Mask</t>
+    <t>"Giving Sets Blood Solution</t>
+  </si>
+  <si>
+    <t>Alcohol 99.9% of 5 Litres</t>
+  </si>
+  <si>
+    <t>Bicarbonate Calibrator</t>
+  </si>
+  <si>
+    <t>Blood Lancets 23G (100 pc)</t>
+  </si>
+  <si>
+    <t>Ceftriaxon injectin</t>
   </si>
   <si>
     <t>First Response Malaria Antigen - Pack of 25</t>
   </si>
   <si>
-    <t>Plain Skirted Tubes 0.5ml</t>
+    <t>Frosted microscope slides</t>
+  </si>
+  <si>
+    <t>Gauze swabs (100 pc)</t>
+  </si>
+  <si>
+    <t>Syringe 3ml (pack of 100)</t>
+  </si>
+  <si>
+    <t>Syringes 10ml-Pack of 50</t>
+  </si>
+  <si>
+    <t>Toner HP 103A (Black)</t>
   </si>
 </sst>
 </file>
@@ -137,8 +158,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Expired_Data" ref="A8:D13" headerRowCount="1" totalsRowCount="0">
-  <autoFilter ref="A8:D13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve" id="1" name="Table1" displayName="Expired_Data" ref="A8:D20" headerRowCount="1" totalsRowCount="0">
+  <autoFilter ref="A8:D20"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Catalog Number"/>
@@ -439,7 +460,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B7" sqref="B7"/>
@@ -477,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -485,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -493,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>1414</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -501,7 +522,63 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>61</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
